--- a/biology/Microbiologie/Milieu_BCP/Milieu_BCP.xlsx
+++ b/biology/Microbiologie/Milieu_BCP/Milieu_BCP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu BCP ou bouillon lactosé au BCP est un milieu de culture non sélectif et non enrichi utilisé en microbiologie pour l'identification de bactéries. C'est un milieu différentiel, comportant un indicateur de pH, le pourpre de bromocrésol (BCP de l'anglais « bromocresol purple »). Ce dernier donne une couleur pourpre au milieu, et passe au jaune si le lactose du milieu est utilisé par les bactéries, par fermentation.
 </t>
@@ -511,7 +523,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dénombrement des coliformes des eaux.
 </t>
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans un volume final d'un litre:
 Peptone : 5,0 g
@@ -578,7 +594,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le pourpre de bromocrésol est pourpre en milieu basique ou neutre, et devient jaune lorsque le milieu devient acide et que le pH diminue.
 Les bactéries "lactose +" utilisent le lactose présent dans le milieu comme source d'énergie. En dégradant le lactose, les bactéries produisent de l'acide ce qui entrainera une acidification du milieu et donc le virage de l'indicateur coloré de pH (le pourpre de bromocrésol), qui en milieu acide est jaune.
